--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y490"/>
+  <dimension ref="A1:Y491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30132,7 +30132,7 @@
       </c>
       <c r="R489" s="2" t="inlineStr"/>
     </row>
-    <row r="490">
+    <row r="490" ht="15" customHeight="1">
       <c r="A490" t="inlineStr">
         <is>
           <t>A 40553-2023</t>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30193,6 +30193,63 @@
         <v>0</v>
       </c>
       <c r="R490" s="2" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>A 43082-2023</t>
+        </is>
+      </c>
+      <c r="B491" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C491" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G491" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0</v>
+      </c>
+      <c r="K491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N491" t="n">
+        <v>0</v>
+      </c>
+      <c r="O491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R491" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 39339-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 39339-2018.xlsx", "A 39339-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 39339-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 39339-2018.png", "A 39339-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 39339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 39339-2018.docx", "A 39339-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 39339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 39339-2018.docx", "A 39339-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 39339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 39339-2018.docx", "A 39339-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 39339-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 39339-2018.docx", "A 39339-2018")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -735,27 +735,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 47241-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 47241-2018.xlsx", "A 47241-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 47241-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 47241-2018.png", "A 47241-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 47241-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 47241-2018.docx", "A 47241-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 47241-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 47241-2018.docx", "A 47241-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 47241-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 47241-2018.docx", "A 47241-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 47241-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 47241-2018.docx", "A 47241-2018")</f>
         <v/>
       </c>
     </row>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -826,31 +826,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 3382-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 3382-2023.xlsx", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 3382-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 3382-2023.png", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 3382-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 3382-2023.png", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 3382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 3382-2023.docx", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 3382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 3382-2023.docx", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 3382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 3382-2023.docx", "A 3382-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 3382-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 3382-2023.docx", "A 3382-2023")</f>
         <v/>
       </c>
     </row>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 3380-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 3380-2023.xlsx", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 3380-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 3380-2023.png", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 3380-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 3380-2023.png", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 3380-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 3380-2023.docx", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 3380-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 3380-2023.docx", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 3380-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 3380-2023.docx", "A 3380-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 3380-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 3380-2023.docx", "A 3380-2023")</f>
         <v/>
       </c>
     </row>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1013,27 +1013,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50496-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50496-2021.xlsx", "A 50496-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50496-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50496-2021.png", "A 50496-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50496-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50496-2021.docx", "A 50496-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50496-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50496-2021.docx", "A 50496-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50496-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50496-2021.docx", "A 50496-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50496-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50496-2021.docx", "A 50496-2021")</f>
         <v/>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1102,27 +1102,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50852-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50852-2021.xlsx", "A 50852-2021")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50852-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50852-2021.png", "A 50852-2021")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50852-2021.docx", "A 50852-2021")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50852-2021.docx", "A 50852-2021")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50852-2021.docx", "A 50852-2021")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50852-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50852-2021.docx", "A 50852-2021")</f>
         <v/>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1196,27 +1196,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 72592-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 72592-2021.xlsx", "A 72592-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 72592-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 72592-2021.png", "A 72592-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 72592-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 72592-2021.docx", "A 72592-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 72592-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 72592-2021.docx", "A 72592-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 72592-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 72592-2021.docx", "A 72592-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 72592-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 72592-2021.docx", "A 72592-2021")</f>
         <v/>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9383-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9383-2021.xlsx", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9383-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9383-2021.png", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="U9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 9383-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 9383-2021.png", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9383-2021.docx", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9383-2021.docx", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9383-2021.docx", "A 9383-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9383-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9383-2021.docx", "A 9383-2021")</f>
         <v/>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1386,27 +1386,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 65599-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 65599-2021.xlsx", "A 65599-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 65599-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 65599-2021.png", "A 65599-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 65599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 65599-2021.docx", "A 65599-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 65599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 65599-2021.docx", "A 65599-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 65599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 65599-2021.docx", "A 65599-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 65599-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 65599-2021.docx", "A 65599-2021")</f>
         <v/>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1474,31 +1474,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 32058-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 32058-2022.xlsx", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 32058-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 32058-2022.png", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 32058-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 32058-2022.png", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32058-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32058-2022.docx", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32058-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32058-2022.docx", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32058-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32058-2022.docx", "A 32058-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32058-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32058-2022.docx", "A 32058-2022")</f>
         <v/>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 40422-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 40422-2022.xlsx", "A 40422-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 40422-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 40422-2022.png", "A 40422-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 40422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 40422-2022.docx", "A 40422-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 40422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 40422-2022.docx", "A 40422-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 40422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 40422-2022.docx", "A 40422-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 40422-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 40422-2022.docx", "A 40422-2022")</f>
         <v/>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,27 +1658,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 31109-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 31109-2020.xlsx", "A 31109-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 31109-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 31109-2020.png", "A 31109-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 31109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 31109-2020.docx", "A 31109-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 31109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 31109-2020.docx", "A 31109-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 31109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 31109-2020.docx", "A 31109-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 31109-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 31109-2020.docx", "A 31109-2020")</f>
         <v/>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,27 +1750,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 10275-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 10275-2021.xlsx", "A 10275-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 10275-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 10275-2021.png", "A 10275-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 10275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 10275-2021.docx", "A 10275-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 10275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 10275-2021.docx", "A 10275-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 10275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 10275-2021.docx", "A 10275-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 10275-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 10275-2021.docx", "A 10275-2021")</f>
         <v/>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,27 +1842,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 30472-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 30472-2023.xlsx", "A 30472-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 30472-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 30472-2023.png", "A 30472-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 30472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 30472-2023.docx", "A 30472-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 30472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 30472-2023.docx", "A 30472-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 30472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 30472-2023.docx", "A 30472-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 30472-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 30472-2023.docx", "A 30472-2023")</f>
         <v/>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,27 +1933,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 48261-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 48261-2018.xlsx", "A 48261-2018")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 48261-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 48261-2018.png", "A 48261-2018")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 48261-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 48261-2018.docx", "A 48261-2018")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 48261-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 48261-2018.docx", "A 48261-2018")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 48261-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 48261-2018.docx", "A 48261-2018")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 48261-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 48261-2018.docx", "A 48261-2018")</f>
         <v/>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2019,27 +2019,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 49981-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 49981-2018.xlsx", "A 49981-2018")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 49981-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 49981-2018.png", "A 49981-2018")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 49981-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 49981-2018.docx", "A 49981-2018")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 49981-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 49981-2018.docx", "A 49981-2018")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 49981-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 49981-2018.docx", "A 49981-2018")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 49981-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 49981-2018.docx", "A 49981-2018")</f>
         <v/>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,27 +2110,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 54259-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 54259-2018.xlsx", "A 54259-2018")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 54259-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 54259-2018.png", "A 54259-2018")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 54259-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 54259-2018.docx", "A 54259-2018")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 54259-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 54259-2018.docx", "A 54259-2018")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 54259-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 54259-2018.docx", "A 54259-2018")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 54259-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 54259-2018.docx", "A 54259-2018")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2196,27 +2196,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 32282-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 32282-2019.xlsx", "A 32282-2019")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 32282-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 32282-2019.png", "A 32282-2019")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32282-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32282-2019.docx", "A 32282-2019")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32282-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32282-2019.docx", "A 32282-2019")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32282-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32282-2019.docx", "A 32282-2019")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32282-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32282-2019.docx", "A 32282-2019")</f>
         <v/>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2287,31 +2287,31 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9382-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9382-2021.xlsx", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9382-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9382-2021.png", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="U20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 9382-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 9382-2021.png", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9382-2021.docx", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9382-2021.docx", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9382-2021.docx", "A 9382-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9382-2021.docx", "A 9382-2021")</f>
         <v/>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2377,27 +2377,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 11501-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 11501-2022.xlsx", "A 11501-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 11501-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 11501-2022.png", "A 11501-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 11501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 11501-2022.docx", "A 11501-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 11501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 11501-2022.docx", "A 11501-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 11501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 11501-2022.docx", "A 11501-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 11501-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 11501-2022.docx", "A 11501-2022")</f>
         <v/>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2468,27 +2468,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 53205-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 53205-2022.xlsx", "A 53205-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 53205-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 53205-2022.png", "A 53205-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 53205-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 53205-2022.docx", "A 53205-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 53205-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 53205-2022.docx", "A 53205-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 53205-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 53205-2022.docx", "A 53205-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 53205-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 53205-2022.docx", "A 53205-2022")</f>
         <v/>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2554,27 +2554,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 33570-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 33570-2023.xlsx", "A 33570-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 33570-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 33570-2023.png", "A 33570-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 33570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 33570-2023.docx", "A 33570-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 33570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 33570-2023.docx", "A 33570-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 33570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 33570-2023.docx", "A 33570-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 33570-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 33570-2023.docx", "A 33570-2023")</f>
         <v/>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2644,27 +2644,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50450-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 50450-2018.xlsx", "A 50450-2018")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50450-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 50450-2018.png", "A 50450-2018")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50450-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 50450-2018.docx", "A 50450-2018")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50450-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 50450-2018.docx", "A 50450-2018")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50450-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 50450-2018.docx", "A 50450-2018")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50450-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 50450-2018.docx", "A 50450-2018")</f>
         <v/>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2734,31 +2734,31 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 54257-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 54257-2018.xlsx", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 54257-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 54257-2018.png", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="U25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 54257-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 54257-2018.png", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 54257-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 54257-2018.docx", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 54257-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 54257-2018.docx", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 54257-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 54257-2018.docx", "A 54257-2018")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 54257-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 54257-2018.docx", "A 54257-2018")</f>
         <v/>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,27 +2823,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 60828-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 60828-2018.xlsx", "A 60828-2018")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 60828-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 60828-2018.png", "A 60828-2018")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 60828-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 60828-2018.docx", "A 60828-2018")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 60828-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 60828-2018.docx", "A 60828-2018")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 60828-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 60828-2018.docx", "A 60828-2018")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 60828-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 60828-2018.docx", "A 60828-2018")</f>
         <v/>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,27 +2908,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 70582-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 70582-2018.xlsx", "A 70582-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 70582-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 70582-2018.png", "A 70582-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 70582-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 70582-2018.docx", "A 70582-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 70582-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 70582-2018.docx", "A 70582-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 70582-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 70582-2018.docx", "A 70582-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 70582-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 70582-2018.docx", "A 70582-2018")</f>
         <v/>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2993,27 +2993,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 7241-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 7241-2020.xlsx", "A 7241-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 7241-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 7241-2020.png", "A 7241-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 7241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 7241-2020.docx", "A 7241-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 7241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 7241-2020.docx", "A 7241-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 7241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 7241-2020.docx", "A 7241-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 7241-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 7241-2020.docx", "A 7241-2020")</f>
         <v/>
       </c>
     </row>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3078,27 +3078,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 30273-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 30273-2020.xlsx", "A 30273-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 30273-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 30273-2020.png", "A 30273-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 30273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 30273-2020.docx", "A 30273-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 30273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 30273-2020.docx", "A 30273-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 30273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 30273-2020.docx", "A 30273-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 30273-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 30273-2020.docx", "A 30273-2020")</f>
         <v/>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3163,27 +3163,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 58735-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 58735-2020.xlsx", "A 58735-2020")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 58735-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 58735-2020.png", "A 58735-2020")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 58735-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 58735-2020.docx", "A 58735-2020")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 58735-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 58735-2020.docx", "A 58735-2020")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 58735-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 58735-2020.docx", "A 58735-2020")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 58735-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 58735-2020.docx", "A 58735-2020")</f>
         <v/>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3248,27 +3248,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 67252-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 67252-2020.xlsx", "A 67252-2020")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 67252-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 67252-2020.png", "A 67252-2020")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 67252-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 67252-2020.docx", "A 67252-2020")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 67252-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 67252-2020.docx", "A 67252-2020")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 67252-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 67252-2020.docx", "A 67252-2020")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 67252-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 67252-2020.docx", "A 67252-2020")</f>
         <v/>
       </c>
     </row>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3333,27 +3333,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 67653-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 67653-2020.xlsx", "A 67653-2020")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 67653-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 67653-2020.png", "A 67653-2020")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 67653-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 67653-2020.docx", "A 67653-2020")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 67653-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 67653-2020.docx", "A 67653-2020")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 67653-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 67653-2020.docx", "A 67653-2020")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 67653-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 67653-2020.docx", "A 67653-2020")</f>
         <v/>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3418,27 +3418,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 910-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 910-2021.xlsx", "A 910-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 910-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 910-2021.png", "A 910-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 910-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 910-2021.docx", "A 910-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 910-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 910-2021.docx", "A 910-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 910-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 910-2021.docx", "A 910-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 910-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 910-2021.docx", "A 910-2021")</f>
         <v/>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3503,27 +3503,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 6299-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 6299-2021.xlsx", "A 6299-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 6299-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 6299-2021.png", "A 6299-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 6299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 6299-2021.docx", "A 6299-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 6299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 6299-2021.docx", "A 6299-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 6299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 6299-2021.docx", "A 6299-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 6299-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 6299-2021.docx", "A 6299-2021")</f>
         <v/>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3588,27 +3588,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 39488-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 39488-2021.xlsx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 39488-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 39488-2021.png", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 39488-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 39488-2021.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 39488-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 39488-2021.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 39488-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 39488-2021.docx", "A 39488-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 39488-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 39488-2021.docx", "A 39488-2021")</f>
         <v/>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3673,27 +3673,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 8014-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 8014-2022.xlsx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 8014-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 8014-2022.png", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 8014-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 8014-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 8014-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 8014-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
     </row>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3758,27 +3758,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9976-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9976-2022.xlsx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9976-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9976-2022.png", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9976-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3848,27 +3848,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 27457-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 27457-2022.xlsx", "A 27457-2022")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 27457-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 27457-2022.png", "A 27457-2022")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 27457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 27457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 27457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 27457-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3933,31 +3933,31 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 33310-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 33310-2022.xlsx", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 33310-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 33310-2022.png", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="U39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 33310-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 33310-2022.png", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 33310-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 33310-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 33310-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 33310-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4027,27 +4027,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 53186-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 53186-2022.xlsx", "A 53186-2022")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 53186-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 53186-2022.png", "A 53186-2022")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 53186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 53186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 53186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 53186-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,27 +4117,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 22949-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 22949-2023.xlsx", "A 22949-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 22949-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 22949-2023.png", "A 22949-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 22949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 22949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 22949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 22949-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
     </row>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21955,23 +21955,23 @@
       </c>
       <c r="R348" s="2" t="inlineStr"/>
       <c r="U348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 32057-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 32057-2022.png", "A 32057-2022")</f>
         <v/>
       </c>
       <c r="V348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 32057-2022.docx", "A 32057-2022")</f>
         <v/>
       </c>
       <c r="W348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 32057-2022.docx", "A 32057-2022")</f>
         <v/>
       </c>
       <c r="X348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 32057-2022.docx", "A 32057-2022")</f>
         <v/>
       </c>
       <c r="Y348">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32057-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 32057-2022.docx", "A 32057-2022")</f>
         <v/>
       </c>
     </row>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y491"/>
+  <dimension ref="A1:Y493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
       </c>
       <c r="R490" s="2" t="inlineStr"/>
     </row>
-    <row r="491">
+    <row r="491" ht="15" customHeight="1">
       <c r="A491" t="inlineStr">
         <is>
           <t>A 43082-2023</t>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30250,6 +30250,130 @@
         <v>0</v>
       </c>
       <c r="R491" s="2" t="inlineStr"/>
+    </row>
+    <row r="492" ht="15" customHeight="1">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>A 43938-2023</t>
+        </is>
+      </c>
+      <c r="B492" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C492" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G492" t="n">
+        <v>2</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0</v>
+      </c>
+      <c r="K492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N492" t="n">
+        <v>0</v>
+      </c>
+      <c r="O492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R492" s="2" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>A 43940-2023</t>
+        </is>
+      </c>
+      <c r="B493" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C493" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G493" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H493" t="n">
+        <v>0</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N493" t="n">
+        <v>0</v>
+      </c>
+      <c r="O493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R493" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y493"/>
+  <dimension ref="A1:Y494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="R492" s="2" t="inlineStr"/>
     </row>
-    <row r="493">
+    <row r="493" ht="15" customHeight="1">
       <c r="A493" t="inlineStr">
         <is>
           <t>A 43940-2023</t>
@@ -30323,7 +30323,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30374,6 +30374,63 @@
         <v>0</v>
       </c>
       <c r="R493" s="2" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>A 45700-2023</t>
+        </is>
+      </c>
+      <c r="B494" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C494" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G494" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N494" t="n">
+        <v>0</v>
+      </c>
+      <c r="O494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R494" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45195</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44609</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>44621</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3792,7 +3792,7 @@
         <v>44742</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44788</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3971,7 +3971,7 @@
         <v>44874</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>45072</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43325</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43342</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43343</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>43353</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4580,7 +4580,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4704,7 +4704,7 @@
         <v>43371</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4766,7 +4766,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>43398</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>43403</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>43410</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5071,7 +5071,7 @@
         <v>43411</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         <v>43417</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         <v>43441</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         <v>43454</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         <v>43468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43474</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43475</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>43479</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5698,7 +5698,7 @@
         <v>43486</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5812,7 +5812,7 @@
         <v>43488</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         <v>43490</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>43494</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         <v>43506</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         <v>43508</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>43510</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6211,7 +6211,7 @@
         <v>43513</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
         <v>43514</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43528</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43544</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         <v>43545</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>43549</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         <v>43557</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         <v>43573</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6734,7 +6734,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6848,7 +6848,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6905,7 +6905,7 @@
         <v>43591</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43593</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7091,7 +7091,7 @@
         <v>43620</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         <v>43626</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7205,7 +7205,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7262,7 +7262,7 @@
         <v>43633</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         <v>43668</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7381,7 +7381,7 @@
         <v>43672</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7438,7 +7438,7 @@
         <v>43682</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7495,7 +7495,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7552,7 +7552,7 @@
         <v>43683</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7609,7 +7609,7 @@
         <v>43685</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7666,7 +7666,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7723,7 +7723,7 @@
         <v>43690</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>43704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>43711</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>43713</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>43718</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>43724</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         <v>43725</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8422,7 +8422,7 @@
         <v>43726</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8479,7 +8479,7 @@
         <v>43731</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8541,7 +8541,7 @@
         <v>43733</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8598,7 +8598,7 @@
         <v>43760</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8655,7 +8655,7 @@
         <v>43768</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8769,7 +8769,7 @@
         <v>43780</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
         <v>43781</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8883,7 +8883,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>43807</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         <v>43811</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9054,7 +9054,7 @@
         <v>43815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
         <v>43816</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9173,7 +9173,7 @@
         <v>43817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9235,7 +9235,7 @@
         <v>43829</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9292,7 +9292,7 @@
         <v>43838</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9354,7 +9354,7 @@
         <v>43847</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9411,7 +9411,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         <v>43857</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9597,7 +9597,7 @@
         <v>43858</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9654,7 +9654,7 @@
         <v>43860</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43864</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9768,7 +9768,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9825,7 +9825,7 @@
         <v>43871</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9882,7 +9882,7 @@
         <v>43880</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9939,7 +9939,7 @@
         <v>43893</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
         <v>43895</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10053,7 +10053,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43909</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43915</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43916</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10343,7 +10343,7 @@
         <v>43938</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10400,7 +10400,7 @@
         <v>43942</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10457,7 +10457,7 @@
         <v>43950</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         <v>43957</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         <v>43969</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         <v>43983</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>43998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         <v>43999</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10871,7 +10871,7 @@
         <v>44000</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10928,7 +10928,7 @@
         <v>44004</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>44013</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44036</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
         <v>44049</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11156,7 +11156,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44050</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44061</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44062</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>44064</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44067</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>44072</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44075</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44077</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44081</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         <v>44082</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
         <v>44085</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>44095</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12083,7 +12083,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12140,7 +12140,7 @@
         <v>44102</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12197,7 +12197,7 @@
         <v>44103</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>44104</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>44109</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         <v>44112</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         <v>44113</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         <v>44115</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         <v>44117</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         <v>44118</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12824,7 +12824,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12881,7 +12881,7 @@
         <v>44123</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12995,7 +12995,7 @@
         <v>44131</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
         <v>44137</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>44144</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13238,7 +13238,7 @@
         <v>44147</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         <v>44160</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13357,7 +13357,7 @@
         <v>44162</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13419,7 +13419,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44166</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44176</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44181</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13709,7 +13709,7 @@
         <v>44207</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>44210</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13880,7 +13880,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44214</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13994,7 +13994,7 @@
         <v>44230</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14051,7 +14051,7 @@
         <v>44232</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14108,7 +14108,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14170,7 +14170,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>44236</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>44238</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44250</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>44252</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>44256</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>44273</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14745,7 +14745,7 @@
         <v>44278</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>44292</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14859,7 +14859,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14916,7 +14916,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14973,7 +14973,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15030,7 +15030,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15087,7 +15087,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15144,7 +15144,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15201,7 +15201,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15258,7 +15258,7 @@
         <v>44293</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15315,7 +15315,7 @@
         <v>44294</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>44305</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15429,7 +15429,7 @@
         <v>44327</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15491,7 +15491,7 @@
         <v>44333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15553,7 +15553,7 @@
         <v>44342</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15615,7 +15615,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15672,7 +15672,7 @@
         <v>44344</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15729,7 +15729,7 @@
         <v>44371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15843,7 +15843,7 @@
         <v>44379</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44390</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44392</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16019,7 +16019,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16076,7 +16076,7 @@
         <v>44396</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>44400</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16190,7 +16190,7 @@
         <v>44407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44410</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44411</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>44412</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16532,7 +16532,7 @@
         <v>44417</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16589,7 +16589,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
         <v>44418</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16703,7 +16703,7 @@
         <v>44419</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16760,7 +16760,7 @@
         <v>44420</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16817,7 +16817,7 @@
         <v>44424</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16874,7 +16874,7 @@
         <v>44433</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>44434</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17045,7 +17045,7 @@
         <v>44439</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17102,7 +17102,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17159,7 +17159,7 @@
         <v>44447</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17273,7 +17273,7 @@
         <v>44448</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17330,7 +17330,7 @@
         <v>44449</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44454</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17444,7 +17444,7 @@
         <v>44458</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44459</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17558,7 +17558,7 @@
         <v>44460</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17615,7 +17615,7 @@
         <v>44462</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44478</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18195,7 +18195,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18309,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18857,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18914,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19033,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19090,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19147,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19261,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19318,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19380,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19442,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19504,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19566,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19623,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19680,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19737,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19794,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19851,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19908,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19965,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20022,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20079,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20136,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20193,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20250,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20820,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20877,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21447,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21504,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +21985,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22327,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22555,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22612,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22669,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22726,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22783,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22840,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22897,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22959,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23016,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23073,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23130,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23187,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23249,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23368,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23425,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23482,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23539,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23596,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23653,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23715,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23772,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23834,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23948,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24005,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24062,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24119,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24238,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24300,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24362,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24419,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24481,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24543,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24662,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24724,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24786,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24910,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24967,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25024,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25081,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25138,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25252,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25309,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25366,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25423,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25480,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26511,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26625,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26749,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27148,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27319,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27376,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27433,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27490,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27547,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27604,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27951,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28360,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28417,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28474,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28531,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28588,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28645,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29044,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29101,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29158,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29215,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29339,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29396,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29453,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29510,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29567,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29795,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29852,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29909,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29966,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30385,7 +30385,7 @@
         <v>45195</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3615,14 +3615,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 8014-2022</t>
+          <t>A 56238-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44609</v>
+        <v>44478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3634,17 +3634,22 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3659,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3669,546 +3674,574 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="S36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 56238-2021.xlsx", "A 56238-2021")</f>
+        <v/>
+      </c>
+      <c r="T36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 56238-2021.png", "A 56238-2021")</f>
+        <v/>
+      </c>
+      <c r="V36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 56238-2021.docx", "A 56238-2021")</f>
+        <v/>
+      </c>
+      <c r="W36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 56238-2021.docx", "A 56238-2021")</f>
+        <v/>
+      </c>
+      <c r="X36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 56238-2021.docx", "A 56238-2021")</f>
+        <v/>
+      </c>
+      <c r="Y36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 56238-2021.docx", "A 56238-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>A 8014-2022</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>44609</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
           <t>Tallticka</t>
         </is>
       </c>
-      <c r="S36">
+      <c r="S37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 8014-2022.xlsx", "A 8014-2022")</f>
         <v/>
       </c>
-      <c r="T36">
+      <c r="T37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 8014-2022.png", "A 8014-2022")</f>
         <v/>
       </c>
-      <c r="V36">
+      <c r="V37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
-      <c r="W36">
+      <c r="W37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
-      <c r="X36">
+      <c r="X37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
-      <c r="Y36">
+      <c r="Y37">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 8014-2022.docx", "A 8014-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" t="inlineStr">
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" t="inlineStr">
         <is>
           <t>A 9976-2022</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38" s="1" t="n">
         <v>44621</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+      <c r="C38" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>1.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>1</v>
       </c>
-      <c r="R37" s="2" t="inlineStr">
+      <c r="R38" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S37">
+      <c r="S38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 9976-2022.xlsx", "A 9976-2022")</f>
         <v/>
       </c>
-      <c r="T37">
+      <c r="T38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 9976-2022.png", "A 9976-2022")</f>
         <v/>
       </c>
-      <c r="V37">
+      <c r="V38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
-      <c r="W37">
+      <c r="W38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
-      <c r="X37">
+      <c r="X38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
-      <c r="Y37">
+      <c r="Y38">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 9976-2022.docx", "A 9976-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" t="inlineStr">
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" t="inlineStr">
         <is>
           <t>A 27457-2022</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39" s="1" t="n">
         <v>44742</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
+      <c r="C39" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G39" t="n">
         <v>10.8</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>1</v>
       </c>
-      <c r="R38" s="2" t="inlineStr">
+      <c r="R39" s="2" t="inlineStr">
         <is>
           <t>Grönpyrola</t>
         </is>
       </c>
-      <c r="S38">
+      <c r="S39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 27457-2022.xlsx", "A 27457-2022")</f>
         <v/>
       </c>
-      <c r="T38">
+      <c r="T39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 27457-2022.png", "A 27457-2022")</f>
         <v/>
       </c>
-      <c r="V38">
+      <c r="V39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
-      <c r="W38">
+      <c r="W39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
-      <c r="X38">
+      <c r="X39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 27457-2022.docx", "A 27457-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" t="inlineStr">
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" t="inlineStr">
         <is>
           <t>A 33310-2022</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40" s="1" t="n">
         <v>44788</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
+      <c r="C40" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>0.4</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1</v>
       </c>
-      <c r="R39" s="2" t="inlineStr">
+      <c r="R40" s="2" t="inlineStr">
         <is>
           <t>Kattfotslav</t>
         </is>
       </c>
-      <c r="S39">
+      <c r="S40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 33310-2022.xlsx", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="T39">
+      <c r="T40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 33310-2022.png", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="U39">
+      <c r="U40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/knärot/A 33310-2022.png", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="V39">
+      <c r="V40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="W39">
+      <c r="W40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="X39">
+      <c r="X40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
-      <c r="Y39">
+      <c r="Y40">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 33310-2022.docx", "A 33310-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" t="inlineStr">
+    <row r="41" ht="15" customHeight="1">
+      <c r="A41" t="inlineStr">
         <is>
           <t>A 53186-2022</t>
         </is>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
+      <c r="C41" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G41" t="n">
         <v>6</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>1</v>
       </c>
-      <c r="R40" s="2" t="inlineStr">
+      <c r="R41" s="2" t="inlineStr">
         <is>
           <t>Havsörn</t>
         </is>
       </c>
-      <c r="S40">
+      <c r="S41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 53186-2022.xlsx", "A 53186-2022")</f>
         <v/>
       </c>
-      <c r="T40">
+      <c r="T41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 53186-2022.png", "A 53186-2022")</f>
         <v/>
       </c>
-      <c r="V40">
+      <c r="V41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
-      <c r="W40">
+      <c r="W41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
-      <c r="X40">
+      <c r="X41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 53186-2022.docx", "A 53186-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" t="inlineStr">
+    <row r="42" ht="15" customHeight="1">
+      <c r="A42" t="inlineStr">
         <is>
           <t>A 22949-2023</t>
         </is>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42" s="1" t="n">
         <v>45072</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
+      <c r="C42" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ÅTVIDABERG</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G42" t="n">
         <v>0.5</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1</v>
       </c>
-      <c r="R41" s="2" t="inlineStr">
+      <c r="R42" s="2" t="inlineStr">
         <is>
           <t>Murgröna</t>
         </is>
       </c>
-      <c r="S41">
+      <c r="S42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/artfynd/A 22949-2023.xlsx", "A 22949-2023")</f>
         <v/>
       </c>
-      <c r="T41">
+      <c r="T42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/kartor/A 22949-2023.png", "A 22949-2023")</f>
         <v/>
       </c>
-      <c r="V41">
+      <c r="V42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomål/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
-      <c r="W41">
+      <c r="W42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/klagomålsmail/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
-      <c r="X41">
+      <c r="X42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsyn/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
-      <c r="Y41">
+      <c r="Y42">
         <f>HYPERLINK("https://klasma.github.io/Logging_ATVIDABERG/tillsynsmail/A 22949-2023.docx", "A 22949-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>A 35310-2018</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>43325</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-    </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40502-2018</t>
+          <t>A 35310-2018</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>43342</v>
+        <v>43325</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4220,13 +4253,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4263,14 +4291,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40003-2018</t>
+          <t>A 40502-2018</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>43343</v>
+        <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4284,11 +4312,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4325,14 +4353,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40006-2018</t>
+          <t>A 40003-2018</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4350,7 +4378,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4387,14 +4415,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39997-2018</t>
+          <t>A 40006-2018</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4412,7 +4440,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4449,14 +4477,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 42261-2018</t>
+          <t>A 39997-2018</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>43353</v>
+        <v>43343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4474,7 +4502,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4511,14 +4539,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 42277-2018</t>
+          <t>A 42261-2018</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4536,7 +4564,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4573,14 +4601,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 42264-2018</t>
+          <t>A 42277-2018</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4598,7 +4626,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4635,14 +4663,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42265-2018</t>
+          <t>A 42264-2018</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4660,7 +4688,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4697,14 +4725,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 48266-2018</t>
+          <t>A 42265-2018</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>43371</v>
+        <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4722,7 +4750,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4759,14 +4787,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 48259-2018</t>
+          <t>A 48266-2018</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4784,7 +4812,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4821,14 +4849,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 55647-2018</t>
+          <t>A 48259-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43398</v>
+        <v>43371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4883,14 +4911,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55654-2018</t>
+          <t>A 55647-2018</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4908,7 +4936,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4945,14 +4973,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 56866-2018</t>
+          <t>A 55654-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43403</v>
+        <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4964,8 +4992,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5002,14 +5035,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58846-2018</t>
+          <t>A 56866-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>43410</v>
+        <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5021,13 +5054,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5064,14 +5092,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 59808-2018</t>
+          <t>A 58846-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>43411</v>
+        <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5083,8 +5111,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5121,14 +5154,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 62972-2018</t>
+          <t>A 59808-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43417</v>
+        <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5141,7 +5174,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5178,14 +5211,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 69306-2018</t>
+          <t>A 62972-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43441</v>
+        <v>43417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5198,7 +5231,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5235,14 +5268,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 71706-2018</t>
+          <t>A 69306-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>43454</v>
+        <v>43441</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5292,14 +5325,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 262-2019</t>
+          <t>A 71706-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43468</v>
+        <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5312,7 +5345,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5349,14 +5382,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 1008-2019</t>
+          <t>A 262-2019</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43472</v>
+        <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5369,7 +5402,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5406,14 +5439,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 765-2019</t>
+          <t>A 1008-2019</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5463,14 +5496,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 1049-2019</t>
+          <t>A 765-2019</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5483,7 +5516,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5520,14 +5553,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1614-2019</t>
+          <t>A 1049-2019</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43474</v>
+        <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5540,7 +5573,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5577,14 +5610,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2277-2019</t>
+          <t>A 1614-2019</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5597,7 +5630,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5634,14 +5667,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 2848-2019</t>
+          <t>A 2277-2019</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43479</v>
+        <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5654,7 +5687,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5691,14 +5724,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 4606-2019</t>
+          <t>A 2848-2019</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43486</v>
+        <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5711,7 +5744,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5748,14 +5781,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4592-2019</t>
+          <t>A 4606-2019</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5768,7 +5801,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5805,14 +5838,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 5352-2019</t>
+          <t>A 4592-2019</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43488</v>
+        <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5825,7 +5858,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5862,14 +5895,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5879-2019</t>
+          <t>A 5352-2019</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43490</v>
+        <v>43488</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5882,7 +5915,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5919,14 +5952,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 6714-2019</t>
+          <t>A 5879-2019</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43494</v>
+        <v>43490</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5939,7 +5972,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5976,14 +6009,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9206-2019</t>
+          <t>A 6714-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43506</v>
+        <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5996,7 +6029,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6033,14 +6066,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 9643-2019</t>
+          <t>A 9206-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43508</v>
+        <v>43506</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6053,7 +6086,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6090,14 +6123,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10079-2019</t>
+          <t>A 9643-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43510</v>
+        <v>43508</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6110,7 +6143,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6147,14 +6180,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10085-2019</t>
+          <t>A 10079-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6167,7 +6200,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6204,14 +6237,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10511-2019</t>
+          <t>A 10085-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43513</v>
+        <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6224,7 +6257,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6261,14 +6294,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10570-2019</t>
+          <t>A 10511-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43514</v>
+        <v>43513</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6280,13 +6313,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6323,14 +6351,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 13171-2019</t>
+          <t>A 10570-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43528</v>
+        <v>43514</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6342,8 +6370,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6380,14 +6413,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16018-2019</t>
+          <t>A 13171-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>43544</v>
+        <v>43528</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6400,7 +6433,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6437,14 +6470,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15922-2019</t>
+          <t>A 16018-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6457,7 +6490,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6494,14 +6527,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16263-2019</t>
+          <t>A 15922-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43545</v>
+        <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6514,7 +6547,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6551,14 +6584,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16593-2019</t>
+          <t>A 16263-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43549</v>
+        <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6571,7 +6604,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6608,14 +6641,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18016-2019</t>
+          <t>A 16593-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>43557</v>
+        <v>43549</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6627,13 +6660,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6670,14 +6698,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 20713-2019</t>
+          <t>A 18016-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>43573</v>
+        <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6689,8 +6717,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6727,14 +6760,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 20703-2019</t>
+          <t>A 20713-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6747,7 +6780,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6784,14 +6817,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 20711-2019</t>
+          <t>A 20703-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6804,7 +6837,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6841,14 +6874,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 20700-2019</t>
+          <t>A 20711-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6861,7 +6894,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6898,14 +6931,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22862-2019</t>
+          <t>A 20700-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43591</v>
+        <v>43573</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6917,13 +6950,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6960,14 +6988,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 23473-2019</t>
+          <t>A 22862-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>43593</v>
+        <v>43591</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6981,11 +7009,11 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7022,14 +7050,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23468-2019</t>
+          <t>A 23473-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7047,7 +7075,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7084,14 +7112,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 29019-2019</t>
+          <t>A 23468-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>43620</v>
+        <v>43593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7103,8 +7131,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7141,14 +7174,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28574-2019</t>
+          <t>A 29019-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43626</v>
+        <v>43620</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7161,7 +7194,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7198,14 +7231,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28597-2019</t>
+          <t>A 28574-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7218,7 +7251,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7255,14 +7288,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 30037-2019</t>
+          <t>A 28597-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43633</v>
+        <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7274,13 +7307,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7317,14 +7345,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 36170-2019</t>
+          <t>A 30037-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43668</v>
+        <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7336,8 +7364,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7374,14 +7407,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 36775-2019</t>
+          <t>A 36170-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>43672</v>
+        <v>43668</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7394,7 +7427,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7431,14 +7464,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 37835-2019</t>
+          <t>A 36775-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43682</v>
+        <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7451,7 +7484,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7488,14 +7521,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 37855-2019</t>
+          <t>A 37835-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7508,7 +7541,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7545,14 +7578,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38026-2019</t>
+          <t>A 37855-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7565,7 +7598,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7602,14 +7635,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38519-2019</t>
+          <t>A 38026-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>43685</v>
+        <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7622,7 +7655,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7659,14 +7692,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 38493-2019</t>
+          <t>A 38519-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7679,7 +7712,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7716,14 +7749,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 39896-2019</t>
+          <t>A 38493-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>43690</v>
+        <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7736,7 +7769,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7773,14 +7806,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 41801-2019</t>
+          <t>A 39896-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43700</v>
+        <v>43690</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7793,7 +7826,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7830,14 +7863,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 42493-2019</t>
+          <t>A 41801-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>43704</v>
+        <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7849,13 +7882,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>9.4</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7892,14 +7920,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 44498-2019</t>
+          <t>A 42493-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43711</v>
+        <v>43704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7911,8 +7939,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7949,14 +7982,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44522-2019</t>
+          <t>A 44498-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7969,7 +8002,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8006,14 +8039,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45088-2019</t>
+          <t>A 44522-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>43713</v>
+        <v>43711</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8026,7 +8059,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.2</v>
+        <v>8.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8063,14 +8096,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 46093-2019</t>
+          <t>A 45088-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43718</v>
+        <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8083,7 +8116,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8120,14 +8153,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46282-2019</t>
+          <t>A 46093-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8139,13 +8172,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8182,14 +8210,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46009-2019</t>
+          <t>A 46282-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8201,8 +8229,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8239,14 +8272,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47663-2019</t>
+          <t>A 46009-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>43724</v>
+        <v>43718</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8259,7 +8292,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8296,14 +8329,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47578-2019</t>
+          <t>A 47663-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8315,13 +8348,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8358,14 +8386,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 48110-2019</t>
+          <t>A 47578-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43725</v>
+        <v>43724</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8377,8 +8405,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8415,14 +8448,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48175-2019</t>
+          <t>A 48110-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>43726</v>
+        <v>43725</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8435,7 +8468,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8472,14 +8505,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49086-2019</t>
+          <t>A 48175-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>43731</v>
+        <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8491,13 +8524,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8534,14 +8562,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49879-2019</t>
+          <t>A 49086-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43733</v>
+        <v>43731</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8553,8 +8581,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8591,14 +8624,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 56102-2019</t>
+          <t>A 49879-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43760</v>
+        <v>43733</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8611,7 +8644,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8648,14 +8681,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57660-2019</t>
+          <t>A 56102-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>43768</v>
+        <v>43760</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8668,7 +8701,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8705,14 +8738,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58634-2019</t>
+          <t>A 57660-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8725,7 +8758,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.3</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8762,14 +8795,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 60929-2019</t>
+          <t>A 58634-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43780</v>
+        <v>43768</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8782,7 +8815,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.2</v>
+        <v>6.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8819,14 +8852,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60858-2019</t>
+          <t>A 60929-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8839,7 +8872,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8876,14 +8909,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 61890-2019</t>
+          <t>A 60858-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8896,7 +8929,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8933,14 +8966,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 66079-2019</t>
+          <t>A 61890-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43807</v>
+        <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8953,7 +8986,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8990,14 +9023,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 67077-2019</t>
+          <t>A 66079-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43811</v>
+        <v>43807</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9010,7 +9043,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9047,14 +9080,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 67792-2019</t>
+          <t>A 67077-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43815</v>
+        <v>43811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9067,7 +9100,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9104,14 +9137,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 68031-2019</t>
+          <t>A 67792-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9123,13 +9156,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -9166,14 +9194,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 68241-2019</t>
+          <t>A 68031-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9191,7 +9219,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -9228,14 +9256,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 69155-2019</t>
+          <t>A 68241-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>43829</v>
+        <v>43817</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9247,8 +9275,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -9285,14 +9318,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 584-2020</t>
+          <t>A 69155-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43838</v>
+        <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9304,13 +9337,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -9347,14 +9375,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 2406-2020</t>
+          <t>A 584-2020</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>43847</v>
+        <v>43838</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9366,8 +9394,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -9404,14 +9437,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 2824-2020</t>
+          <t>A 2406-2020</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43850</v>
+        <v>43847</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9423,13 +9456,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -9466,14 +9494,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2826-2020</t>
+          <t>A 2824-2020</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9491,7 +9519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -9528,14 +9556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 4107-2020</t>
+          <t>A 2826-2020</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43857</v>
+        <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9553,7 +9581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -9590,14 +9618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4397-2020</t>
+          <t>A 4107-2020</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9609,8 +9637,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9647,14 +9680,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 5386-2020</t>
+          <t>A 4397-2020</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>43860</v>
+        <v>43858</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9667,7 +9700,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9704,14 +9737,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 5939-2020</t>
+          <t>A 5386-2020</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>43864</v>
+        <v>43860</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9724,7 +9757,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9761,14 +9794,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 5942-2020</t>
+          <t>A 5939-2020</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9781,7 +9814,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9818,14 +9851,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 7254-2020</t>
+          <t>A 5942-2020</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>43871</v>
+        <v>43864</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9838,7 +9871,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9875,14 +9908,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9273-2020</t>
+          <t>A 7254-2020</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>43880</v>
+        <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9895,7 +9928,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9932,14 +9965,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 11482-2020</t>
+          <t>A 9273-2020</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43893</v>
+        <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9952,7 +9985,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9989,14 +10022,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 12319-2020</t>
+          <t>A 11482-2020</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10009,7 +10042,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10046,14 +10079,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 12317-2020</t>
+          <t>A 12319-2020</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10103,14 +10136,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 12090-2020</t>
+          <t>A 12317-2020</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10123,7 +10156,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -10160,14 +10193,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 16593-2020</t>
+          <t>A 12090-2020</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43909</v>
+        <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10180,7 +10213,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -10217,14 +10250,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15715-2020</t>
+          <t>A 16593-2020</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43915</v>
+        <v>43909</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10237,7 +10270,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -10274,14 +10307,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 16020-2020</t>
+          <t>A 15715-2020</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10293,13 +10326,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -10336,14 +10364,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19390-2020</t>
+          <t>A 16020-2020</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>43938</v>
+        <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10355,8 +10383,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>4.8</v>
+        <v>0.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -10393,14 +10426,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 19787-2020</t>
+          <t>A 19390-2020</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43942</v>
+        <v>43938</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10413,7 +10446,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -10450,14 +10483,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 20839-2020</t>
+          <t>A 19787-2020</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>43950</v>
+        <v>43942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10469,13 +10502,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -10512,14 +10540,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 21705-2020</t>
+          <t>A 20839-2020</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>43957</v>
+        <v>43950</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10531,8 +10559,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -10569,14 +10602,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 23437-2020</t>
+          <t>A 21705-2020</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43969</v>
+        <v>43957</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10589,7 +10622,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10626,14 +10659,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 25643-2020</t>
+          <t>A 23437-2020</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43983</v>
+        <v>43969</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10646,7 +10679,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10683,14 +10716,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25496-2020</t>
+          <t>A 25643-2020</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10702,13 +10735,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10745,14 +10773,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 28320-2020</t>
+          <t>A 25496-2020</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43998</v>
+        <v>43983</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10764,8 +10792,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10802,14 +10835,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28689-2020</t>
+          <t>A 28320-2020</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10821,13 +10854,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10864,14 +10892,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 29018-2020</t>
+          <t>A 28689-2020</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10883,8 +10911,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G157" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10921,14 +10954,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 29149-2020</t>
+          <t>A 29018-2020</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44004</v>
+        <v>44000</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10941,7 +10974,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10978,14 +11011,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 31398-2020</t>
+          <t>A 29149-2020</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44013</v>
+        <v>44004</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10998,7 +11031,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11035,14 +11068,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 34872-2020</t>
+          <t>A 31398-2020</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44036</v>
+        <v>44013</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11055,7 +11088,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11092,14 +11125,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36286-2020</t>
+          <t>A 34872-2020</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44049</v>
+        <v>44036</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11149,14 +11182,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36309-2020</t>
+          <t>A 36286-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11169,7 +11202,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -11206,14 +11239,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 36557-2020</t>
+          <t>A 36309-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11226,7 +11259,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -11263,14 +11296,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38622-2020</t>
+          <t>A 36557-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44061</v>
+        <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11283,7 +11316,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -11320,14 +11353,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38897-2020</t>
+          <t>A 38622-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11340,7 +11373,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -11377,14 +11410,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 39510-2020</t>
+          <t>A 38897-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11396,13 +11429,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Holmen skog AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -11439,14 +11467,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 40651-2020</t>
+          <t>A 39510-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44067</v>
+        <v>44064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11458,8 +11486,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>11.1</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -11496,14 +11529,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 41387-2020</t>
+          <t>A 40651-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44072</v>
+        <v>44067</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11515,13 +11548,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.8</v>
+        <v>11.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -11558,14 +11586,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 42156-2020</t>
+          <t>A 41387-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44075</v>
+        <v>44072</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11577,8 +11605,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -11615,14 +11648,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 42513-2020</t>
+          <t>A 42156-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11635,7 +11668,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11672,14 +11705,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 42516-2020</t>
+          <t>A 42513-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11692,7 +11725,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11729,14 +11762,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 43240-2020</t>
+          <t>A 42516-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44081</v>
+        <v>44077</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11749,7 +11782,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11786,14 +11819,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 43731-2020</t>
+          <t>A 43240-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11806,7 +11839,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>6.7</v>
+        <v>3.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11843,14 +11876,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43742-2020</t>
+          <t>A 43731-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11862,13 +11895,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11905,14 +11933,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 43740-2020</t>
+          <t>A 43742-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11924,8 +11952,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11962,14 +11995,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 44813-2020</t>
+          <t>A 43740-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44085</v>
+        <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11982,7 +12015,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12019,14 +12052,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 46720-2020</t>
+          <t>A 44813-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44095</v>
+        <v>44085</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12039,7 +12072,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -12076,14 +12109,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 46753-2020</t>
+          <t>A 46720-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12133,14 +12166,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 48497-2020</t>
+          <t>A 46753-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44102</v>
+        <v>44095</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12153,7 +12186,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -12190,14 +12223,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 48756-2020</t>
+          <t>A 48497-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12210,7 +12243,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -12247,14 +12280,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 48978-2020</t>
+          <t>A 48756-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12267,7 +12300,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -12304,14 +12337,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50161-2020</t>
+          <t>A 48978-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44109</v>
+        <v>44104</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12324,7 +12357,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -12361,14 +12394,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 51048-2020</t>
+          <t>A 50161-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44112</v>
+        <v>44109</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12381,7 +12414,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -12418,14 +12451,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 51047-2020</t>
+          <t>A 51048-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12438,7 +12471,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -12475,14 +12508,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52363-2020</t>
+          <t>A 51047-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12495,7 +12528,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -12532,14 +12565,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 51517-2020</t>
+          <t>A 52363-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12552,7 +12585,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -12589,14 +12622,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 51796-2020</t>
+          <t>A 51517-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12609,7 +12642,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12646,14 +12679,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 52315-2020</t>
+          <t>A 51796-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12666,7 +12699,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12703,14 +12736,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 52721-2020</t>
+          <t>A 52315-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12723,7 +12756,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12760,14 +12793,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52724-2020</t>
+          <t>A 52721-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12780,7 +12813,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12817,14 +12850,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 52723-2020</t>
+          <t>A 52724-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12837,7 +12870,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12874,14 +12907,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 53230-2020</t>
+          <t>A 52723-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44123</v>
+        <v>44118</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12894,7 +12927,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12931,14 +12964,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 53248-2020</t>
+          <t>A 53230-2020</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12951,7 +12984,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12988,14 +13021,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 55456-2020</t>
+          <t>A 53248-2020</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44131</v>
+        <v>44123</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13007,13 +13040,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>32</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -13050,14 +13078,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56587-2020</t>
+          <t>A 55456-2020</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44137</v>
+        <v>44131</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13075,7 +13103,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>32</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -13112,14 +13140,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56727-2020</t>
+          <t>A 56587-2020</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13133,11 +13161,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -13174,14 +13202,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58105-2020</t>
+          <t>A 56727-2020</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44144</v>
+        <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13193,8 +13221,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -13231,14 +13264,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 59325-2020</t>
+          <t>A 58105-2020</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13250,13 +13283,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -13293,14 +13321,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62271-2020</t>
+          <t>A 59325-2020</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44160</v>
+        <v>44147</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13312,8 +13340,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -13350,14 +13383,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62926-2020</t>
+          <t>A 62271-2020</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13369,13 +13402,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -13412,14 +13440,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62925-2020</t>
+          <t>A 62926-2020</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13474,14 +13502,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63863-2020</t>
+          <t>A 62925-2020</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44166</v>
+        <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13493,8 +13521,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -13531,14 +13564,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 66870-2020</t>
+          <t>A 63863-2020</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44176</v>
+        <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13551,7 +13584,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -13588,14 +13621,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 66867-2020</t>
+          <t>A 66870-2020</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13608,7 +13641,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -13645,14 +13678,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 67255-2020</t>
+          <t>A 66867-2020</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44181</v>
+        <v>44176</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13665,7 +13698,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13702,14 +13735,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 1128-2021</t>
+          <t>A 67255-2020</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44207</v>
+        <v>44181</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13722,7 +13755,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13759,14 +13792,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 918-2021</t>
+          <t>A 1128-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13779,7 +13812,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13816,14 +13849,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 1803-2021</t>
+          <t>A 918-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13836,7 +13869,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13873,14 +13906,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 1781-2021</t>
+          <t>A 1803-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13926,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13930,14 +13963,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 2587-2021</t>
+          <t>A 1781-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13983,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13987,14 +14020,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5549-2021</t>
+          <t>A 2587-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44230</v>
+        <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14007,7 +14040,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -14044,14 +14077,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6314-2021</t>
+          <t>A 5549-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14064,7 +14097,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -14101,14 +14134,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 6342-2021</t>
+          <t>A 6314-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14120,13 +14153,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -14163,14 +14191,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 6337-2021</t>
+          <t>A 6342-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14216,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -14225,14 +14253,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 6680-2021</t>
+          <t>A 6337-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14244,8 +14272,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>4.7</v>
+        <v>8.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -14282,14 +14315,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 7204-2021</t>
+          <t>A 6680-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14302,7 +14335,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -14339,14 +14372,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 7203-2021</t>
+          <t>A 7204-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14359,7 +14392,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -14396,14 +14429,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 9314-2021</t>
+          <t>A 7203-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44250</v>
+        <v>44238</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14416,7 +14449,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -14453,14 +14486,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 9740-2021</t>
+          <t>A 9314-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44252</v>
+        <v>44250</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14473,7 +14506,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -14510,14 +14543,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 10025-2021</t>
+          <t>A 9740-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14530,7 +14563,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -14567,14 +14600,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10041-2021</t>
+          <t>A 10025-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14587,7 +14620,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -14624,14 +14657,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 10047-2021</t>
+          <t>A 10041-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14644,7 +14677,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14681,14 +14714,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13549-2021</t>
+          <t>A 10047-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44273</v>
+        <v>44256</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14701,7 +14734,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14738,14 +14771,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 14115-2021</t>
+          <t>A 13549-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44278</v>
+        <v>44273</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14758,7 +14791,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14795,14 +14828,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 16365-2021</t>
+          <t>A 14115-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44292</v>
+        <v>44278</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14815,7 +14848,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14852,14 +14885,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 16292-2021</t>
+          <t>A 16365-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14872,7 +14905,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14909,14 +14942,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 16367-2021</t>
+          <t>A 16292-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14929,7 +14962,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14966,14 +14999,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 16258-2021</t>
+          <t>A 16367-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15023,14 +15056,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 16278-2021</t>
+          <t>A 16258-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15043,7 +15076,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>9.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -15080,14 +15113,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 16364-2021</t>
+          <t>A 16278-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15100,7 +15133,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -15137,14 +15170,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 16363-2021</t>
+          <t>A 16364-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15157,7 +15190,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -15194,14 +15227,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 16369-2021</t>
+          <t>A 16363-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15214,7 +15247,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -15251,14 +15284,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 16480-2021</t>
+          <t>A 16369-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44293</v>
+        <v>44292</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15271,7 +15304,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>5.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -15308,14 +15341,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 16892-2021</t>
+          <t>A 16480-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44294</v>
+        <v>44293</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15328,7 +15361,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -15365,14 +15398,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18318-2021</t>
+          <t>A 16892-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44305</v>
+        <v>44294</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15385,7 +15418,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -15422,14 +15455,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22573-2021</t>
+          <t>A 18318-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44327</v>
+        <v>44305</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15441,13 +15474,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -15484,14 +15512,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 23199-2021</t>
+          <t>A 22573-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44333</v>
+        <v>44327</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15509,7 +15537,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>7.2</v>
+        <v>2.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -15546,14 +15574,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 25314-2021</t>
+          <t>A 23199-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44342</v>
+        <v>44333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15567,11 +15595,11 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -15608,14 +15636,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 25486-2021</t>
+          <t>A 25314-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15627,8 +15655,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -15665,14 +15698,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 25831-2021</t>
+          <t>A 25486-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44344</v>
+        <v>44342</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15685,7 +15718,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15722,14 +15755,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 32302-2021</t>
+          <t>A 25831-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44371</v>
+        <v>44344</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15742,7 +15775,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15779,14 +15812,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 32296-2021</t>
+          <t>A 32302-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15799,7 +15832,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15836,14 +15869,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 34209-2021</t>
+          <t>A 32296-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44379</v>
+        <v>44371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15855,13 +15888,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>21.3</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15898,14 +15926,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 36320-2021</t>
+          <t>A 34209-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44390</v>
+        <v>44379</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15917,8 +15945,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>0.3</v>
+        <v>21.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15955,14 +15988,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 36772-2021</t>
+          <t>A 36320-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15975,7 +16008,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -16012,14 +16045,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 36777-2021</t>
+          <t>A 36772-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16032,7 +16065,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -16069,14 +16102,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 37109-2021</t>
+          <t>A 36777-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44396</v>
+        <v>44392</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16089,7 +16122,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -16126,14 +16159,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 37728-2021</t>
+          <t>A 37109-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44400</v>
+        <v>44396</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16146,7 +16179,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -16183,14 +16216,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 38567-2021</t>
+          <t>A 37728-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44407</v>
+        <v>44400</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16203,7 +16236,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -16240,14 +16273,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 38569-2021</t>
+          <t>A 38567-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16260,7 +16293,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -16297,14 +16330,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 38805-2021</t>
+          <t>A 38569-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44410</v>
+        <v>44407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16317,7 +16350,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -16354,14 +16387,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 38964-2021</t>
+          <t>A 38805-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16374,7 +16407,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -16411,14 +16444,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 38966-2021</t>
+          <t>A 38964-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16431,7 +16464,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -16468,14 +16501,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 39123-2021</t>
+          <t>A 38966-2021</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44412</v>
+        <v>44411</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16488,7 +16521,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -16525,14 +16558,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 39882-2021</t>
+          <t>A 39123-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44417</v>
+        <v>44412</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16582,14 +16615,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 39776-2021</t>
+          <t>A 39882-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16602,7 +16635,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -16639,14 +16672,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 40046-2021</t>
+          <t>A 39776-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44418</v>
+        <v>44417</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16659,7 +16692,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16696,14 +16729,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 40219-2021</t>
+          <t>A 40046-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44419</v>
+        <v>44418</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16716,7 +16749,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -16753,14 +16786,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 40563-2021</t>
+          <t>A 40219-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44420</v>
+        <v>44419</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16773,7 +16806,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16810,14 +16843,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 41440-2021</t>
+          <t>A 40563-2021</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44424</v>
+        <v>44420</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16830,7 +16863,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16867,14 +16900,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 43510-2021</t>
+          <t>A 41440-2021</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44433</v>
+        <v>44424</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16887,7 +16920,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16924,14 +16957,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 44083-2021</t>
+          <t>A 43510-2021</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44434</v>
+        <v>44433</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16944,7 +16977,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16981,14 +17014,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 44129-2021</t>
+          <t>A 44083-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17001,7 +17034,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -17038,14 +17071,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 45100-2021</t>
+          <t>A 44129-2021</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44439</v>
+        <v>44434</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17058,7 +17091,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -17095,14 +17128,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 45067-2021</t>
+          <t>A 45100-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17115,7 +17148,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -17152,14 +17185,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 47323-2021</t>
+          <t>A 45067-2021</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44447</v>
+        <v>44439</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17172,7 +17205,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>7.2</v>
+        <v>2.6</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -17209,14 +17242,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 47330-2021</t>
+          <t>A 47323-2021</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17229,7 +17262,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -17266,14 +17299,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 47729-2021</t>
+          <t>A 47330-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44448</v>
+        <v>44447</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17286,7 +17319,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -17323,14 +17356,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 48291-2021</t>
+          <t>A 47729-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44449</v>
+        <v>44448</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17343,7 +17376,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -17380,14 +17413,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 49176-2021</t>
+          <t>A 48291-2021</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44454</v>
+        <v>44449</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17400,7 +17433,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -17437,14 +17470,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 50502-2021</t>
+          <t>A 49176-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44458</v>
+        <v>44454</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17457,7 +17490,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -17494,14 +17527,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 50593-2021</t>
+          <t>A 50502-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44459</v>
+        <v>44458</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17551,14 +17584,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 50751-2021</t>
+          <t>A 50593-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44460</v>
+        <v>44459</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17571,7 +17604,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -17608,14 +17641,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 51704-2021</t>
+          <t>A 50751-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44462</v>
+        <v>44460</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17627,13 +17660,8 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -17670,14 +17698,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51881-2021</t>
+          <t>A 51704-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17689,8 +17717,13 @@
           <t>ÅTVIDABERG</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17727,14 +17760,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 51882-2021</t>
+          <t>A 51881-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17747,7 +17780,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17784,14 +17817,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 52756-2021</t>
+          <t>A 51882-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44467</v>
+        <v>44462</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17804,7 +17837,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17841,14 +17874,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 52763-2021</t>
+          <t>A 52756-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17861,7 +17894,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17898,14 +17931,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 53082-2021</t>
+          <t>A 52763-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17918,7 +17951,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17955,14 +17988,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 52773-2021</t>
+          <t>A 53082-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17975,7 +18008,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -18012,14 +18045,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 52743-2021</t>
+          <t>A 52773-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18032,7 +18065,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -18069,14 +18102,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 52776-2021</t>
+          <t>A 52743-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18089,7 +18122,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -18126,14 +18159,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 56238-2021</t>
+          <t>A 52776-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44478</v>
+        <v>44467</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18143,11 +18176,6 @@
       <c r="E283" t="inlineStr">
         <is>
           <t>ÅTVIDABERG</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G283" t="n">
@@ -18195,7 +18223,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18252,7 +18280,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18309,7 +18337,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18366,7 +18394,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18428,7 +18456,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18490,7 +18518,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18552,7 +18580,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18614,7 +18642,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18676,7 +18704,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18738,7 +18766,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18800,7 +18828,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18857,7 +18885,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18914,7 +18942,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18976,7 +19004,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19033,7 +19061,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19090,7 +19118,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19147,7 +19175,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19204,7 +19232,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19261,7 +19289,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19318,7 +19346,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19380,7 +19408,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19442,7 +19470,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19504,7 +19532,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19566,7 +19594,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19623,7 +19651,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19680,7 +19708,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19737,7 +19765,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19794,7 +19822,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19851,7 +19879,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19908,7 +19936,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19965,7 +19993,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20022,7 +20050,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20079,7 +20107,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20136,7 +20164,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20193,7 +20221,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20250,7 +20278,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20307,7 +20335,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20364,7 +20392,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20421,7 +20449,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20478,7 +20506,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20535,7 +20563,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20592,7 +20620,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20649,7 +20677,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20706,7 +20734,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20763,7 +20791,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20820,7 +20848,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20877,7 +20905,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20934,7 +20962,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20991,7 +21019,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21048,7 +21076,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21105,7 +21133,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21162,7 +21190,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21219,7 +21247,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21276,7 +21304,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21333,7 +21361,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21390,7 +21418,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21447,7 +21475,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21504,7 +21532,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21561,7 +21589,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21618,7 +21646,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21680,7 +21708,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21737,7 +21765,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21794,7 +21822,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21851,7 +21879,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21908,7 +21936,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21985,7 +22013,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22042,7 +22070,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22099,7 +22127,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22156,7 +22184,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22213,7 +22241,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22270,7 +22298,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22327,7 +22355,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22384,7 +22412,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22441,7 +22469,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22498,7 +22526,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22555,7 +22583,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22612,7 +22640,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22669,7 +22697,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22726,7 +22754,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22783,7 +22811,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22840,7 +22868,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22897,7 +22925,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22959,7 +22987,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23016,7 +23044,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23073,7 +23101,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23130,7 +23158,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23187,7 +23215,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23249,7 +23277,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23311,7 +23339,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23368,7 +23396,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23425,7 +23453,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23482,7 +23510,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23539,7 +23567,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23596,7 +23624,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23653,7 +23681,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23715,7 +23743,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23772,7 +23800,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23834,7 +23862,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23891,7 +23919,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23948,7 +23976,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24005,7 +24033,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24062,7 +24090,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24119,7 +24147,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24176,7 +24204,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24238,7 +24266,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24300,7 +24328,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24362,7 +24390,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24419,7 +24447,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24481,7 +24509,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24543,7 +24571,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24600,7 +24628,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24662,7 +24690,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24724,7 +24752,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24786,7 +24814,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24848,7 +24876,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24910,7 +24938,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24967,7 +24995,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25024,7 +25052,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25081,7 +25109,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25138,7 +25166,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25195,7 +25223,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25252,7 +25280,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25309,7 +25337,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25366,7 +25394,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25423,7 +25451,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25480,7 +25508,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25537,7 +25565,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25594,7 +25622,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25651,7 +25679,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25708,7 +25736,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25765,7 +25793,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25822,7 +25850,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25879,7 +25907,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25936,7 +25964,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25993,7 +26021,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26050,7 +26078,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26107,7 +26135,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26164,7 +26192,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26221,7 +26249,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26278,7 +26306,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26335,7 +26363,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26392,7 +26420,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26449,7 +26477,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26511,7 +26539,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26568,7 +26596,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26625,7 +26653,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26687,7 +26715,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26749,7 +26777,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26806,7 +26834,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26863,7 +26891,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26920,7 +26948,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26977,7 +27005,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27034,7 +27062,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27091,7 +27119,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27148,7 +27176,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27205,7 +27233,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27262,7 +27290,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27319,7 +27347,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27376,7 +27404,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27433,7 +27461,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27490,7 +27518,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27547,7 +27575,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27604,7 +27632,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27661,7 +27689,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27718,7 +27746,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27775,7 +27803,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27832,7 +27860,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27889,7 +27917,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27951,7 +27979,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28013,7 +28041,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28070,7 +28098,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28127,7 +28155,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28184,7 +28212,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28246,7 +28274,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28303,7 +28331,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28360,7 +28388,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28417,7 +28445,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28474,7 +28502,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28531,7 +28559,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28588,7 +28616,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28645,7 +28673,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28702,7 +28730,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28759,7 +28787,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28816,7 +28844,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28873,7 +28901,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28930,7 +28958,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28987,7 +29015,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29044,7 +29072,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29101,7 +29129,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29158,7 +29186,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29215,7 +29243,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29277,7 +29305,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29339,7 +29367,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29396,7 +29424,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29453,7 +29481,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29510,7 +29538,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29567,7 +29595,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29624,7 +29652,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29681,7 +29709,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29738,7 +29766,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29795,7 +29823,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29852,7 +29880,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29909,7 +29937,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29966,7 +29994,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30023,7 +30051,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30085,7 +30113,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30142,7 +30170,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30204,7 +30232,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30261,7 +30289,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30323,7 +30351,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30385,7 +30413,7 @@
         <v>45195</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>

--- a/Översikt ÅTVIDABERG.xlsx
+++ b/Översikt ÅTVIDABERG.xlsx
@@ -572,7 +572,7 @@
         <v>43341</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43367</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44949</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         <v>44949</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         <v>44458</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>44459</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>44546</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44250</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         <v>44516</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44778</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44823</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>44012</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44256</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>43393</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>43644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>44250</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>44631</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         <v>44874</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>45131</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43379</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
         <v>43393</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>43410</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>43451</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>43871</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>44007</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         <v>44145</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44181</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         <v>44182</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         <v>44207</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>44232</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         <v>44414</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>44478</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>44609</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
         <v>44621</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44742</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>44788</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44874</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45072</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>43325</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>43342</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>43343</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>43343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         <v>43343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         <v>43353</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         <v>43353</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         <v>43353</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43353</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4794,7 +4794,7 @@
         <v>43371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43371</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43398</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4980,7 +4980,7 @@
         <v>43398</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>43403</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         <v>43410</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5161,7 +5161,7 @@
         <v>43411</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>43417</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43441</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5332,7 +5332,7 @@
         <v>43454</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5389,7 +5389,7 @@
         <v>43468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>43472</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
         <v>43472</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5560,7 +5560,7 @@
         <v>43472</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43474</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         <v>43475</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>43479</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         <v>43486</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5845,7 +5845,7 @@
         <v>43486</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
         <v>43488</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5959,7 +5959,7 @@
         <v>43490</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6016,7 +6016,7 @@
         <v>43494</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
         <v>43506</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>43508</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6301,7 +6301,7 @@
         <v>43513</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>43514</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>43528</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
         <v>43544</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6534,7 +6534,7 @@
         <v>43544</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6591,7 +6591,7 @@
         <v>43545</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6648,7 +6648,7 @@
         <v>43549</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6705,7 +6705,7 @@
         <v>43557</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
         <v>43573</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6824,7 +6824,7 @@
         <v>43573</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43573</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43573</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43591</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>43593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         <v>43593</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43620</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43626</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43626</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43633</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7414,7 +7414,7 @@
         <v>43668</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         <v>43672</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
         <v>43682</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7585,7 +7585,7 @@
         <v>43682</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         <v>43685</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7756,7 +7756,7 @@
         <v>43685</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
         <v>43690</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7870,7 +7870,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7927,7 +7927,7 @@
         <v>43704</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>43711</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>43711</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>43713</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8160,7 +8160,7 @@
         <v>43718</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8217,7 +8217,7 @@
         <v>43718</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8279,7 +8279,7 @@
         <v>43718</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>43724</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8393,7 +8393,7 @@
         <v>43724</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8455,7 +8455,7 @@
         <v>43725</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8512,7 +8512,7 @@
         <v>43726</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
         <v>43731</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43733</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43760</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43768</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43768</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43780</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43781</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43781</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>43807</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9087,7 +9087,7 @@
         <v>43811</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9144,7 +9144,7 @@
         <v>43815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
         <v>43816</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9263,7 +9263,7 @@
         <v>43817</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43829</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>43838</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43847</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43850</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>43850</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>43857</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>43858</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43860</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>43864</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>43864</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9915,7 +9915,7 @@
         <v>43871</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9972,7 +9972,7 @@
         <v>43880</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10029,7 +10029,7 @@
         <v>43893</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10086,7 +10086,7 @@
         <v>43895</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10143,7 +10143,7 @@
         <v>43895</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
         <v>43895</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10257,7 +10257,7 @@
         <v>43909</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10314,7 +10314,7 @@
         <v>43915</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10371,7 +10371,7 @@
         <v>43916</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10433,7 +10433,7 @@
         <v>43938</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10490,7 +10490,7 @@
         <v>43942</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10547,7 +10547,7 @@
         <v>43950</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10609,7 +10609,7 @@
         <v>43957</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>43969</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10723,7 +10723,7 @@
         <v>43983</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10780,7 +10780,7 @@
         <v>43983</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>43998</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>43999</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>44000</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>44004</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>44013</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44036</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11189,7 +11189,7 @@
         <v>44049</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44049</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44050</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>44061</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>44062</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>44064</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>44067</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44072</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11655,7 +11655,7 @@
         <v>44075</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11712,7 +11712,7 @@
         <v>44077</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11769,7 +11769,7 @@
         <v>44077</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11826,7 +11826,7 @@
         <v>44081</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11883,7 +11883,7 @@
         <v>44082</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>44082</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>44082</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>44085</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44095</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44095</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44102</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>44103</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>44104</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>44109</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>44112</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>44112</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>44112</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44113</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44115</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44117</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44118</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44118</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44118</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44123</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13028,7 +13028,7 @@
         <v>44123</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13085,7 +13085,7 @@
         <v>44131</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>44137</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13209,7 +13209,7 @@
         <v>44137</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44144</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>44147</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44160</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44162</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44166</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>44176</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>44176</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>44181</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>44207</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>44207</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>44210</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13970,7 +13970,7 @@
         <v>44210</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44214</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>44230</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44232</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>44232</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44232</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44236</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>44238</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44238</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44250</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44252</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44256</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14664,7 +14664,7 @@
         <v>44256</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>44256</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44273</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>44278</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>44292</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14949,7 +14949,7 @@
         <v>44292</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15006,7 +15006,7 @@
         <v>44292</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>44292</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>44292</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>44292</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>44292</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44292</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>44293</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>44294</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>44305</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>44327</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15643,7 +15643,7 @@
         <v>44342</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44342</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>44344</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>44371</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44371</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44379</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44390</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44392</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44392</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>44396</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16223,7 +16223,7 @@
         <v>44400</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16280,7 +16280,7 @@
         <v>44407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16337,7 +16337,7 @@
         <v>44407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44410</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16451,7 +16451,7 @@
         <v>44411</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16508,7 +16508,7 @@
         <v>44411</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>44412</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>44417</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16679,7 +16679,7 @@
         <v>44417</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>44418</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16793,7 +16793,7 @@
         <v>44419</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16850,7 +16850,7 @@
         <v>44420</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16907,7 +16907,7 @@
         <v>44424</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>44433</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17021,7 +17021,7 @@
         <v>44434</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17078,7 +17078,7 @@
         <v>44434</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17135,7 +17135,7 @@
         <v>44439</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>44439</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17249,7 +17249,7 @@
         <v>44447</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17306,7 +17306,7 @@
         <v>44447</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17363,7 +17363,7 @@
         <v>44448</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17420,7 +17420,7 @@
         <v>44449</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17477,7 +17477,7 @@
         <v>44454</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17534,7 +17534,7 @@
         <v>44458</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17591,7 +17591,7 @@
         <v>44459</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17648,7 +17648,7 @@
         <v>44460</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17705,7 +17705,7 @@
         <v>44462</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17767,7 +17767,7 @@
         <v>44462</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17824,7 +17824,7 @@
         <v>44462</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17881,7 +17881,7 @@
         <v>44467</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18052,7 +18052,7 @@
         <v>44467</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18166,7 +18166,7 @@
         <v>44467</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>44479</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18280,7 +18280,7 @@
         <v>44479</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18337,7 +18337,7 @@
         <v>44479</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>44494</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18456,7 +18456,7 @@
         <v>44495</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18518,7 +18518,7 @@
         <v>44495</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>44516</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>44516</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18704,7 +18704,7 @@
         <v>44516</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>44516</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44517</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44528</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44531</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19004,7 +19004,7 @@
         <v>44532</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>44533</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19118,7 +19118,7 @@
         <v>44539</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>44539</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19232,7 +19232,7 @@
         <v>44543</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19289,7 +19289,7 @@
         <v>44545</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44546</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44546</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19470,7 +19470,7 @@
         <v>44546</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>44552</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>44564</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44564</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>44565</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19765,7 +19765,7 @@
         <v>44579</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44586</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44586</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44593</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44596</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44599</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44607</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20164,7 +20164,7 @@
         <v>44621</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20221,7 +20221,7 @@
         <v>44627</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20278,7 +20278,7 @@
         <v>44627</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20335,7 +20335,7 @@
         <v>44629</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20392,7 +20392,7 @@
         <v>44631</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20449,7 +20449,7 @@
         <v>44641</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>44641</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>44656</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20620,7 +20620,7 @@
         <v>44656</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20677,7 +20677,7 @@
         <v>44659</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20734,7 +20734,7 @@
         <v>44665</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20791,7 +20791,7 @@
         <v>44721</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20848,7 +20848,7 @@
         <v>44721</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20905,7 +20905,7 @@
         <v>44721</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>44721</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21019,7 +21019,7 @@
         <v>44722</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21076,7 +21076,7 @@
         <v>44724</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21133,7 +21133,7 @@
         <v>44728</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21190,7 +21190,7 @@
         <v>44735</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21247,7 +21247,7 @@
         <v>44741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21304,7 +21304,7 @@
         <v>44742</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21361,7 +21361,7 @@
         <v>44742</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21418,7 +21418,7 @@
         <v>44745</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21475,7 +21475,7 @@
         <v>44745</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21532,7 +21532,7 @@
         <v>44760</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21589,7 +21589,7 @@
         <v>44767</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21646,7 +21646,7 @@
         <v>44768</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21708,7 +21708,7 @@
         <v>44770</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44774</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21822,7 +21822,7 @@
         <v>44777</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21879,7 +21879,7 @@
         <v>44777</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44778</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>44778</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22127,7 +22127,7 @@
         <v>44778</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
         <v>44778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22241,7 +22241,7 @@
         <v>44778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22298,7 +22298,7 @@
         <v>44782</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44783</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44784</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44784</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44789</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>44789</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>44789</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44789</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>44789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>44791</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>44795</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>44795</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22987,7 +22987,7 @@
         <v>44797</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23044,7 +23044,7 @@
         <v>44806</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23101,7 +23101,7 @@
         <v>44806</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23158,7 +23158,7 @@
         <v>44806</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23215,7 +23215,7 @@
         <v>44816</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44816</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23339,7 +23339,7 @@
         <v>44826</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>44827</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -23453,7 +23453,7 @@
         <v>44830</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23510,7 +23510,7 @@
         <v>44831</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23567,7 +23567,7 @@
         <v>44832</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23624,7 +23624,7 @@
         <v>44839</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23681,7 +23681,7 @@
         <v>44841</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>44846</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>44847</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23862,7 +23862,7 @@
         <v>44851</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>44851</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23976,7 +23976,7 @@
         <v>44851</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44851</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44855</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44858</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24204,7 +24204,7 @@
         <v>44860</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24266,7 +24266,7 @@
         <v>44860</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>44860</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44861</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>44862</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24509,7 +24509,7 @@
         <v>44862</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24571,7 +24571,7 @@
         <v>44865</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24628,7 +24628,7 @@
         <v>44872</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44874</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44874</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44874</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24876,7 +24876,7 @@
         <v>44874</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44876</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44880</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44888</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44915</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44917</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25223,7 +25223,7 @@
         <v>44922</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>44930</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25337,7 +25337,7 @@
         <v>44931</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>44935</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25451,7 +25451,7 @@
         <v>44935</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25508,7 +25508,7 @@
         <v>44937</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
         <v>44938</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25622,7 +25622,7 @@
         <v>44942</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44942</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>44949</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25793,7 +25793,7 @@
         <v>44952</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25850,7 +25850,7 @@
         <v>44952</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         <v>44952</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25964,7 +25964,7 @@
         <v>44964</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26021,7 +26021,7 @@
         <v>44965</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26078,7 +26078,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26135,7 +26135,7 @@
         <v>44970</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26192,7 +26192,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26249,7 +26249,7 @@
         <v>44972</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26306,7 +26306,7 @@
         <v>44973</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26363,7 +26363,7 @@
         <v>44980</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26420,7 +26420,7 @@
         <v>44988</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26477,7 +26477,7 @@
         <v>44989</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26539,7 +26539,7 @@
         <v>44991</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26596,7 +26596,7 @@
         <v>44994</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26653,7 +26653,7 @@
         <v>44994</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26715,7 +26715,7 @@
         <v>44995</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26777,7 +26777,7 @@
         <v>45015</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26834,7 +26834,7 @@
         <v>45015</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26891,7 +26891,7 @@
         <v>45020</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26948,7 +26948,7 @@
         <v>45021</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27005,7 +27005,7 @@
         <v>45022</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27062,7 +27062,7 @@
         <v>45022</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27119,7 +27119,7 @@
         <v>45042</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>45042</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>45042</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45042</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45047</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45047</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45049</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27518,7 +27518,7 @@
         <v>45056</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27575,7 +27575,7 @@
         <v>45057</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27632,7 +27632,7 @@
         <v>45058</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45058</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27746,7 +27746,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27803,7 +27803,7 @@
         <v>45058</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>45061</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27917,7 +27917,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28041,7 +28041,7 @@
         <v>45072</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>45077</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45079</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28212,7 +28212,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28274,7 +28274,7 @@
         <v>45089</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28331,7 +28331,7 @@
         <v>45090</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28388,7 +28388,7 @@
         <v>45090</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28445,7 +28445,7 @@
         <v>45090</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28502,7 +28502,7 @@
         <v>45092</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28559,7 +28559,7 @@
         <v>45097</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28616,7 +28616,7 @@
         <v>45097</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28673,7 +28673,7 @@
         <v>45097</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28730,7 +28730,7 @@
         <v>45097</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28787,7 +28787,7 @@
         <v>45097</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28844,7 +28844,7 @@
         <v>45097</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28901,7 +28901,7 @@
         <v>45098</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28958,7 +28958,7 @@
         <v>45098</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29015,7 +29015,7 @@
         <v>45104</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>45104</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45104</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45106</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29243,7 +29243,7 @@
         <v>45110</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>45112</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29367,7 +29367,7 @@
         <v>45114</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29424,7 +29424,7 @@
         <v>45114</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29481,7 +29481,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29538,7 +29538,7 @@
         <v>45118</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29595,7 +29595,7 @@
         <v>45118</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29652,7 +29652,7 @@
         <v>45118</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29709,7 +29709,7 @@
         <v>45120</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -29766,7 +29766,7 @@
         <v>45147</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29823,7 +29823,7 @@
         <v>45149</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29880,7 +29880,7 @@
         <v>45154</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29937,7 +29937,7 @@
         <v>45166</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29994,7 +29994,7 @@
         <v>45167</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30051,7 +30051,7 @@
         <v>45168</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30113,7 +30113,7 @@
         <v>45169</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30170,7 +30170,7 @@
         <v>45170</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30232,7 +30232,7 @@
         <v>45182</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30289,7 +30289,7 @@
         <v>45187</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30351,7 +30351,7 @@
         <v>45187</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -30413,7 +30413,7 @@
         <v>45195</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
